--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Pumpfed Irrigation for Maize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83115DF-AF2B-496A-BF9C-10756FA4AD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DF248-54D5-438A-AD6C-8125D7333A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
   <si>
     <t>Maize</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>Absolute</t>
+  </si>
+  <si>
+    <t>calculation</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -543,7 +546,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1537,7 +1540,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,6 +1646,9 @@
       <c r="J4" t="s">
         <v>111</v>
       </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1695,6 +1701,9 @@
       <c r="I7" t="s">
         <v>131</v>
       </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1758,6 +1767,9 @@
       </c>
       <c r="I10" t="s">
         <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>138</v>
       </c>
       <c r="K10" t="s">
         <v>110</v>
@@ -1835,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -1902,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A31"/>
     </sheetView>
   </sheetViews>

--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Pumpfed Irrigation for Maize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DF248-54D5-438A-AD6C-8125D7333A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F433D14-4D01-4F08-9A95-62C8A7FA191E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
     <sheet name="main" sheetId="2" r:id="rId2"/>
     <sheet name="Y" sheetId="3" r:id="rId3"/>
     <sheet name="VA" sheetId="4" r:id="rId4"/>
-    <sheet name="Z" sheetId="5" r:id="rId5"/>
+    <sheet name="S" sheetId="6" r:id="rId5"/>
+    <sheet name="Z" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
   <si>
     <t>Maize</t>
   </si>
@@ -412,9 +413,6 @@
     <t>US Dollars / Ghanaian Cedi forex @2014</t>
   </si>
   <si>
-    <t>Deflation rate from 2020 to 2014</t>
-  </si>
-  <si>
     <t>https://www.in2013dollars.com/us/inflation/</t>
   </si>
   <si>
@@ -451,7 +449,16 @@
     <t>Absolute</t>
   </si>
   <si>
-    <t>calculation</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>Investment in wells @2012</t>
+  </si>
+  <si>
+    <t>Inflation rate from 2012 to 2015</t>
   </si>
 </sst>
 </file>
@@ -536,7 +543,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -560,6 +567,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1539,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,9 +1558,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1632,10 +1639,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4">
         <v>449.5259858834267</v>
@@ -1652,7 +1659,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
@@ -1669,19 +1676,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C6">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="D6" t="s">
         <v>112</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1699,10 +1706,13 @@
         <v>115</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
         <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1718,8 +1728,20 @@
       <c r="D8" t="s">
         <v>112</v>
       </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.02</v>
+      </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
         <v>111</v>
@@ -1753,20 +1775,20 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
       </c>
       <c r="C10" s="4">
         <f>C4*C6/C5</f>
-        <v>125.86727604735948</v>
+        <v>142.46515860305524</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
         <v>138</v>
@@ -1823,7 +1845,7 @@
       </c>
       <c r="C2" s="4">
         <f>main!C10</f>
-        <v>125.86727604735948</v>
+        <v>142.46515860305524</v>
       </c>
     </row>
   </sheetData>
@@ -1911,11 +1933,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7967368-C341-4416-93F9-139A951A2B0D}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31" xr:uid="{9E6C9298-4E19-408A-8A2C-0E94BEFA7393}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31" xr:uid="{7C1A4F9C-04C2-49A1-92FA-70177C51AA50}">
+      <formula1>"Percentage,Absolute"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{7C771BF8-FBC5-40DF-B642-0D5B9058415E}">
+      <formula1>"Activities,Commodities"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BFD58C4-FDF4-4431-9E45-36B8D780538C}">
+          <x14:formula1>
+            <xm:f>indeces!$A$1:$A$111</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{768089DC-4ADE-4B4C-92C5-0B03079FFBA5}">
+          <x14:formula1>
+            <xm:f>indeces!$B$1:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A31"/>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,26 +2050,26 @@
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="9">
         <f>-main!C8</f>
         <v>-0.26845637583892612</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1988,26 +2077,26 @@
         <v>95</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" s="10">
         <f>main!C7</f>
         <v>21.851454285957875</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Pumpfed Irrigation for Maize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F433D14-4D01-4F08-9A95-62C8A7FA191E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66840805-FDD9-4663-830E-79997DE8C378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="main" sheetId="2" r:id="rId2"/>
     <sheet name="Y" sheetId="3" r:id="rId3"/>
     <sheet name="VA" sheetId="4" r:id="rId4"/>
-    <sheet name="S" sheetId="6" r:id="rId5"/>
-    <sheet name="Z" sheetId="5" r:id="rId6"/>
+    <sheet name="Z" sheetId="5" r:id="rId5"/>
+    <sheet name="S" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="265">
   <si>
     <t>Maize</t>
   </si>
@@ -278,6 +278,381 @@
     <t>Rest of world</t>
   </si>
   <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Nuclear Electricity</t>
+  </si>
+  <si>
+    <t>Hydroelectric Electricity</t>
+  </si>
+  <si>
+    <t>Geothermal Electricity</t>
+  </si>
+  <si>
+    <t>Wind Electricity</t>
+  </si>
+  <si>
+    <t>Solar, Tide and Wave Electricity</t>
+  </si>
+  <si>
+    <t>Biomass and Waste Electricity</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2b</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>Public electricity and heat production</t>
+  </si>
+  <si>
+    <t>Other Energy Industries</t>
+  </si>
+  <si>
+    <t>Manufacturing Industries and Construction</t>
+  </si>
+  <si>
+    <t>Domestic aviation</t>
+  </si>
+  <si>
+    <t>Road transportation</t>
+  </si>
+  <si>
+    <t>Rail transportation</t>
+  </si>
+  <si>
+    <t>Inland navigation</t>
+  </si>
+  <si>
+    <t>Other transportation</t>
+  </si>
+  <si>
+    <t>Residential and other sectors</t>
+  </si>
+  <si>
+    <t>Fugitive emissions from solid fuels</t>
+  </si>
+  <si>
+    <t>Fugitive emissions from oil and gas</t>
+  </si>
+  <si>
+    <t>Memo: International aviation</t>
+  </si>
+  <si>
+    <t>Memo: International navigation</t>
+  </si>
+  <si>
+    <t>Production of minerals</t>
+  </si>
+  <si>
+    <t>Cement production</t>
+  </si>
+  <si>
+    <t>Lime production</t>
+  </si>
+  <si>
+    <t>Production of chemicals</t>
+  </si>
+  <si>
+    <t>Production of metals</t>
+  </si>
+  <si>
+    <t>Production of pulp/paper/food/drink</t>
+  </si>
+  <si>
+    <t>Production of halocarbons and SF6</t>
+  </si>
+  <si>
+    <t>Refrigeration and Air Conditioning</t>
+  </si>
+  <si>
+    <t>Foam Blowing</t>
+  </si>
+  <si>
+    <t>Fire Extinguishers</t>
+  </si>
+  <si>
+    <t>Aerosols</t>
+  </si>
+  <si>
+    <t>F-gas as Solvent</t>
+  </si>
+  <si>
+    <t>Semiconductor/Electronics Manufacture</t>
+  </si>
+  <si>
+    <t>Electrical Equipment</t>
+  </si>
+  <si>
+    <t>Other F-gas use</t>
+  </si>
+  <si>
+    <t>Non-energy use of lubricants/waxes (CO2)</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: paint</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: degrease</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: chemicals</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: other</t>
+  </si>
+  <si>
+    <t>Enteric fermentation</t>
+  </si>
+  <si>
+    <t>Manure management</t>
+  </si>
+  <si>
+    <t>Rice cultivation</t>
+  </si>
+  <si>
+    <t>Direct soil emissions</t>
+  </si>
+  <si>
+    <t>Manure in pasture/range/paddock</t>
+  </si>
+  <si>
+    <t>Indirect N2O from agriculture</t>
+  </si>
+  <si>
+    <t>Other direct soil emissions</t>
+  </si>
+  <si>
+    <t>Savanna burning</t>
+  </si>
+  <si>
+    <t>Agricultural waste burning</t>
+  </si>
+  <si>
+    <t>Forest fires</t>
+  </si>
+  <si>
+    <t>Grassland fires</t>
+  </si>
+  <si>
+    <t>Decay of wetlands/peatlands</t>
+  </si>
+  <si>
+    <t>Other vegetation fires</t>
+  </si>
+  <si>
+    <t>Forest Fires-Post burn decay</t>
+  </si>
+  <si>
+    <t>Solid waste disposal on land</t>
+  </si>
+  <si>
+    <t>Wastewater handling</t>
+  </si>
+  <si>
+    <t>Waste incineration</t>
+  </si>
+  <si>
+    <t>Other waste handling</t>
+  </si>
+  <si>
+    <t>Fossil fuel fires</t>
+  </si>
+  <si>
+    <t>Indirect N2O from non-agricultural NOx</t>
+  </si>
+  <si>
+    <t>Indirect N2O from non-agricultural NH3</t>
+  </si>
+  <si>
+    <t>Other sources</t>
+  </si>
+  <si>
+    <t>EDGAR|Buildings|GgFossilCO2</t>
+  </si>
+  <si>
+    <t>EDGAR|Other industrial combustion|GgFossilCO2</t>
+  </si>
+  <si>
+    <t>EDGAR|Other sectors|GgFossilCO2</t>
+  </si>
+  <si>
+    <t>EDGAR|Power Industry|GgFossilCO2</t>
+  </si>
+  <si>
+    <t>EDGAR|Transport|GgFossilCO2</t>
+  </si>
+  <si>
+    <t>EDGAR|Total|GgFossilCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUASTAT|Water withdrawal </t>
+  </si>
+  <si>
+    <t>Agricultural area</t>
+  </si>
+  <si>
+    <t>Agricultural area actually irrigated</t>
+  </si>
+  <si>
+    <t>Agricultural area certified organic</t>
+  </si>
+  <si>
+    <t>Agricultural area in conversion to organic</t>
+  </si>
+  <si>
+    <t>Agricultural area organic, total</t>
+  </si>
+  <si>
+    <t>Arable land</t>
+  </si>
+  <si>
+    <t>Arable land and Permanent crops</t>
+  </si>
+  <si>
+    <t>Arable land area certified organic</t>
+  </si>
+  <si>
+    <t>Arable land area in conversion to organic</t>
+  </si>
+  <si>
+    <t>Arable land organic, total</t>
+  </si>
+  <si>
+    <t>Area of arable land and permanent crops under protective cover</t>
+  </si>
+  <si>
+    <t>Country area</t>
+  </si>
+  <si>
+    <t>Fallow land (temporary)</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Inland water</t>
+  </si>
+  <si>
+    <t>Land area</t>
+  </si>
+  <si>
+    <t>Other land</t>
+  </si>
+  <si>
+    <t>Other naturally regenerated forest</t>
+  </si>
+  <si>
+    <t>Perm. meadows &amp; pastures - Cultivated</t>
+  </si>
+  <si>
+    <t>Perm. meadows &amp; pastures - Nat. growing</t>
+  </si>
+  <si>
+    <t>Permanent crops</t>
+  </si>
+  <si>
+    <t>Permanent crops area certified organic</t>
+  </si>
+  <si>
+    <t>Permanent crops area in conversion to organic</t>
+  </si>
+  <si>
+    <t>Permanent crops organic, total</t>
+  </si>
+  <si>
+    <t>Permanent meadows and pastures</t>
+  </si>
+  <si>
+    <t>Permanent meadows and pastures area certified organic</t>
+  </si>
+  <si>
+    <t>Permanent meadows and pastures area in conversion to organic</t>
+  </si>
+  <si>
+    <t>Permanent meadows and pastures organic, total</t>
+  </si>
+  <si>
+    <t>Planted forest</t>
+  </si>
+  <si>
+    <t>Primary forest</t>
+  </si>
+  <si>
+    <t>Temporary crops</t>
+  </si>
+  <si>
+    <t>Temporary meadows and pastures</t>
+  </si>
+  <si>
+    <t>Total area equipped for irrigation</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of crop production* (Mm3/yr) - Green</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of crop production* (Mm3/yr) - Blue</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of crop production* (Mm3/yr) - Grey</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of grazing** (Mm3/yr) - Green</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of grazing** (Mm3/yr) - Blue</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of grazing** (Mm3/yr) - Grey</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of animal water supply** (Mm3/yr) - Green</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of animal water supply** (Mm3/yr) - Blue</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of animal water supply** (Mm3/yr) - Grey</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of industrial production (Mm3/yr) - Green</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of industrial production (Mm3/yr) - Blue</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of industrial production (Mm3/yr) - Grey</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of domestic water supply (Mm3/yr) - Green</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of domestic water supply (Mm3/yr) - Blue</t>
+  </si>
+  <si>
+    <t>WFN: Water footprint of domestic water supply (Mm3/yr) - Grey</t>
+  </si>
+  <si>
+    <t>Green Water</t>
+  </si>
+  <si>
+    <t>Blue Water</t>
+  </si>
+  <si>
+    <t>Grey Water</t>
+  </si>
+  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -341,96 +716,102 @@
     <t>level_row</t>
   </si>
   <si>
-    <t>E</t>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>Electricity cost in Ghana @2014</t>
+  </si>
+  <si>
+    <t>GHS/kWh</t>
+  </si>
+  <si>
+    <t>http://databank.worldbank.org/data/download/avpfa/avpfa-tariff.xlsx</t>
+  </si>
+  <si>
+    <t>ΔE_p</t>
+  </si>
+  <si>
+    <t>Increase in electricity consumption (physical)</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>see Water_gap.xlsx</t>
+  </si>
+  <si>
+    <t>Authors calculation</t>
+  </si>
+  <si>
+    <t>Inv$</t>
+  </si>
+  <si>
+    <t>Investment in wells @2012</t>
+  </si>
+  <si>
+    <t>M USD</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>US Dollars / Ghanaian Cedi forex @2014</t>
+  </si>
+  <si>
+    <t>USD/GHS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/USDGHS/</t>
+  </si>
+  <si>
+    <t>d$</t>
+  </si>
+  <si>
+    <t>Inflation rate from 2012 to 2015</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.in2013dollars.com/us/inflation/</t>
+  </si>
+  <si>
+    <t>ΔE=ΔE_p*ec</t>
+  </si>
+  <si>
+    <t>Increase in electricity consumption (monetary)</t>
+  </si>
+  <si>
+    <t>M GHS</t>
+  </si>
+  <si>
+    <t>conversion</t>
   </si>
   <si>
     <t>Δp</t>
   </si>
   <si>
+    <t>Increase in maize productivity</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>ΔW</t>
   </si>
   <si>
-    <t>Increase in maize productivity</t>
-  </si>
-  <si>
     <t>Increase in blue water consumption</t>
   </si>
   <si>
+    <t>Mm3</t>
+  </si>
+  <si>
+    <t>Inv=Inv$*d$/FX</t>
+  </si>
+  <si>
     <t>Investment in wells</t>
   </si>
   <si>
-    <t>ec</t>
-  </si>
-  <si>
-    <t>http://databank.worldbank.org/data/download/avpfa/avpfa-tariff.xlsx</t>
-  </si>
-  <si>
-    <t>GWh</t>
-  </si>
-  <si>
-    <t>Authors calculation</t>
-  </si>
-  <si>
-    <t>see Water_gap.xlsx</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Mm3</t>
-  </si>
-  <si>
-    <t>M USD</t>
-  </si>
-  <si>
-    <t>M GHS</t>
-  </si>
-  <si>
-    <t>GHS/kWh</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/USDGHS/</t>
-  </si>
-  <si>
-    <t>USD/GHS</t>
-  </si>
-  <si>
-    <t>ΔE=ΔE_p*ec</t>
-  </si>
-  <si>
-    <t>ΔE_p</t>
-  </si>
-  <si>
-    <t>Increase in electricity consumption (physical)</t>
-  </si>
-  <si>
-    <t>Increase in electricity consumption (monetary)</t>
-  </si>
-  <si>
-    <t>Electricity cost in Ghana @2014</t>
-  </si>
-  <si>
-    <t>US Dollars / Ghanaian Cedi forex @2014</t>
-  </si>
-  <si>
-    <t>https://www.in2013dollars.com/us/inflation/</t>
-  </si>
-  <si>
-    <t>d$</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>Inv$</t>
-  </si>
-  <si>
-    <t>Inv=Inv$*d$/FX</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -449,16 +830,7 @@
     <t>Absolute</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>conversion</t>
-  </si>
-  <si>
-    <t>Investment in wells @2012</t>
-  </si>
-  <si>
-    <t>Inflation rate from 2012 to 2015</t>
+    <t>Z,S</t>
   </si>
 </sst>
 </file>
@@ -543,22 +915,17 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -567,7 +934,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -908,634 +1274,1867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C259" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C264" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1547,266 +3146,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>90</v>
+      <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="C2">
         <v>0.8</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>108</v>
+        <v>228</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4">
-        <v>27.314317857447342</v>
+        <v>231</v>
+      </c>
+      <c r="C3" s="3">
+        <v>54.028321036709023</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="3">
+        <v>126.06608241898772</v>
+      </c>
+      <c r="G3" s="3">
+        <v>418.16370779853639</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>264</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="4">
-        <v>449.5259858834267</v>
+        <v>236</v>
+      </c>
+      <c r="C4" s="3">
+        <v>719.24157741348267</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="3">
+        <v>18.009440345569679</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2568.719919333867</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4" t="s">
+        <v>258</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="C5">
         <v>3.25</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>117</v>
+        <v>240</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="C6">
         <v>1.03</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>125</v>
+        <v>244</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="4">
+        <v>247</v>
+      </c>
+      <c r="C7" s="3">
         <f>C3*C2</f>
-        <v>21.851454285957875</v>
+        <v>43.222656829367224</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.26845637583892612</v>
+        <v>251</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.02</v>
+        <v>252</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.01</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="5">
+        <v>254</v>
+      </c>
+      <c r="C9" s="6">
+        <v>660.896893415401</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9">
+        <v>550.74741117950089</v>
+      </c>
+      <c r="G9">
         <v>771.0463756513011</v>
       </c>
-      <c r="D9" t="s">
-        <v>113</v>
+      <c r="H9">
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="4">
+        <v>257</v>
+      </c>
+      <c r="C10" s="3">
         <f>C4*C6/C5</f>
-        <v>142.46515860305524</v>
+        <v>227.94425376488834</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{416E46A8-9AFA-4DAD-B981-7250BD874A4E}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{FDA48F71-907B-4447-8225-6E410D036C0A}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{BA1D0E73-D9D6-4AC0-8C00-AAAC7A962F5C}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{9AF6ACF4-3563-41CC-9A67-DA52CB8445B6}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{0687902B-A4B4-4D14-BC8F-90EB2E9510E7}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{C072E8E9-A703-4C29-BA63-9821EAB86DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1816,52 +3447,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>main!C10</f>
-        <v>142.46515860305524</v>
+        <v>227.94425376488834</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$111</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1870,256 +3486,214 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A2" sqref="A2:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="8">
+        <f>-main!C8</f>
+        <v>-0.1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="9">
+        <f>main!C7</f>
+        <v>43.222656829367224</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 D2:D3" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Activities,Commodities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"Percentage,Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31" xr:uid="{00000000-0002-0000-0300-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="3">
+        <f>main!C9</f>
+        <v>660.896893415401</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>"Percentage,Absolute"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
-            <xm:f>indeces!$B$1:$B$23</xm:f>
+            <xm:f>indeces!$C$1:$C$291</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B31</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>indeces!$A$1:$A$111</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7967368-C341-4416-93F9-139A951A2B0D}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31" xr:uid="{9E6C9298-4E19-408A-8A2C-0E94BEFA7393}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31" xr:uid="{7C1A4F9C-04C2-49A1-92FA-70177C51AA50}">
-      <formula1>"Percentage,Absolute"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{7C771BF8-FBC5-40DF-B642-0D5B9058415E}">
-      <formula1>"Activities,Commodities"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BFD58C4-FDF4-4431-9E45-36B8D780538C}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$111</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{768089DC-4ADE-4B4C-92C5-0B03079FFBA5}">
-          <x14:formula1>
-            <xm:f>indeces!$B$1:$B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="9">
-        <f>-main!C8</f>
-        <v>-0.26845637583892612</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="10">
-        <f>main!C7</f>
-        <v>21.851454285957875</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31 D2:D31" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>"Activities,Commodities"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{00000000-0002-0000-0400-000004000000}">
-      <formula1>"Percentage,Absolute"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H31" xr:uid="{00000000-0002-0000-0400-000005000000}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
-          <x14:formula1>
-            <xm:f>indeces!$A$1:$A$111</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C31 E2:E31</xm:sqref>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Shock1_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Pumpfed Irrigation for Maize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66840805-FDD9-4663-830E-79997DE8C378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C12C3-46FC-4BEE-97FD-A0A56611E111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="266">
   <si>
     <t>Maize</t>
   </si>
@@ -719,12 +719,6 @@
     <t>ec</t>
   </si>
   <si>
-    <t>Electricity cost in Ghana @2014</t>
-  </si>
-  <si>
-    <t>GHS/kWh</t>
-  </si>
-  <si>
     <t>http://databank.worldbank.org/data/download/avpfa/avpfa-tariff.xlsx</t>
   </si>
   <si>
@@ -758,9 +752,6 @@
     <t>US Dollars / Ghanaian Cedi forex @2014</t>
   </si>
   <si>
-    <t>USD/GHS</t>
-  </si>
-  <si>
     <t>https://www.tradingview.com/symbols/USDGHS/</t>
   </si>
   <si>
@@ -776,9 +767,6 @@
     <t>https://www.in2013dollars.com/us/inflation/</t>
   </si>
   <si>
-    <t>ΔE=ΔE_p*ec</t>
-  </si>
-  <si>
     <t>Increase in electricity consumption (monetary)</t>
   </si>
   <si>
@@ -831,6 +819,21 @@
   </si>
   <si>
     <t>Z,S</t>
+  </si>
+  <si>
+    <t>USD/kWh</t>
+  </si>
+  <si>
+    <t>Electricity cost for pumps in Ghana @2014</t>
+  </si>
+  <si>
+    <t>GHS/USD</t>
+  </si>
+  <si>
+    <t>ΔE=ΔE_p*ec*FX</t>
+  </si>
+  <si>
+    <t>see Ghana electricity tariffs.xlsx</t>
   </si>
 </sst>
 </file>
@@ -3147,7 +3150,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3157,6 +3160,7 @@
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3200,71 +3204,75 @@
         <v>226</v>
       </c>
       <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="J2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="3">
         <v>54.028321036709023</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F3" s="3">
+        <v>18.009440345569679</v>
+      </c>
+      <c r="G3" s="3">
         <v>126.06608241898772</v>
-      </c>
-      <c r="G3" s="3">
-        <v>418.16370779853639</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3">
         <v>719.24157741348267</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F4" s="3">
-        <v>18.009440345569679</v>
+        <v>418.16370779853639</v>
       </c>
       <c r="G4" s="3">
         <v>2568.719919333867</v>
@@ -3273,85 +3281,83 @@
         <v>250</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5">
         <v>3.25</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C6">
         <v>1.03</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C7" s="3">
-        <f>C3*C2</f>
-        <v>43.222656829367224</v>
+        <f>C3*C2*C5</f>
+        <v>58.647742485347642</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" s="4">
         <v>0.1</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F8" s="5">
         <v>0.05</v>
@@ -3363,30 +3369,30 @@
         <v>0.01</v>
       </c>
       <c r="I8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C9" s="6">
         <v>660.896893415401</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F9">
         <v>550.74741117950089</v>
@@ -3398,34 +3404,31 @@
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C10" s="3">
         <f>C4*C6/C5</f>
         <v>227.94425376488834</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3560,26 +3563,26 @@
         <v>219</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G2" s="8">
         <f>-main!C8</f>
         <v>-0.1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3587,26 +3590,26 @@
         <v>220</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G3" s="9">
         <f>main!C7</f>
-        <v>43.222656829367224</v>
+        <v>58.647742485347642</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3630,7 +3633,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3666,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3">
         <f>main!C9</f>
